--- a/P-1引脚安排V0.8.xlsx
+++ b/P-1引脚安排V0.8.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="-204" windowWidth="20976" windowHeight="12168"/>
+    <workbookView xWindow="300" yWindow="-210" windowWidth="20970" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1085,30 +1085,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.2">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.2">
+    <row r="2" spans="1:11" ht="20.25">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -2191,7 +2191,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,7 +2204,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
